--- a/XC-comparisons/HL_P-DAT_comparison.xlsx
+++ b/XC-comparisons/HL_P-DAT_comparison.xlsx
@@ -847,7 +847,7 @@
         <v>-86</v>
       </c>
       <c r="B16">
-        <v>-0.00100000000000122</v>
+        <v>0</v>
       </c>
       <c r="C16">
         <v>0</v>
@@ -876,7 +876,7 @@
         <v>-85</v>
       </c>
       <c r="B17">
-        <v>-0.00100000000000122</v>
+        <v>-3.5527136788005e-15</v>
       </c>
       <c r="C17">
         <v>0</v>
@@ -1717,7 +1717,7 @@
         <v>-56</v>
       </c>
       <c r="B46">
-        <v>-0.00100000000000477</v>
+        <v>0</v>
       </c>
       <c r="C46">
         <v>0</v>
@@ -1949,7 +1949,7 @@
         <v>-48</v>
       </c>
       <c r="B54">
-        <v>-0.00100000000000477</v>
+        <v>0</v>
       </c>
       <c r="C54">
         <v>0</v>
@@ -2036,7 +2036,7 @@
         <v>-45</v>
       </c>
       <c r="B57">
-        <v>-0.00100000000000477</v>
+        <v>0</v>
       </c>
       <c r="C57">
         <v>1.4210854715202e-14</v>
@@ -2500,7 +2500,7 @@
         <v>-29</v>
       </c>
       <c r="B73">
-        <v>-0.00100000000000477</v>
+        <v>0</v>
       </c>
       <c r="C73">
         <v>0.00100000000000477</v>
@@ -2732,7 +2732,7 @@
         <v>-21</v>
       </c>
       <c r="B81">
-        <v>-0.00100000000000477</v>
+        <v>-2.8421709430404e-14</v>
       </c>
       <c r="C81">
         <v>-2.8421709430404e-14</v>
@@ -2848,7 +2848,7 @@
         <v>-17</v>
       </c>
       <c r="B85">
-        <v>-0.00100000000000477</v>
+        <v>0</v>
       </c>
       <c r="C85">
         <v>-0.000999999999976353</v>
@@ -2964,7 +2964,7 @@
         <v>-13</v>
       </c>
       <c r="B89">
-        <v>-0.0010000000000332</v>
+        <v>-2.8421709430404e-14</v>
       </c>
       <c r="C89">
         <v>2.8421709430404e-14</v>
@@ -2993,7 +2993,7 @@
         <v>-12</v>
       </c>
       <c r="B90">
-        <v>-0.000999999999976353</v>
+        <v>0</v>
       </c>
       <c r="C90">
         <v>0</v>
@@ -3631,7 +3631,7 @@
         <v>10</v>
       </c>
       <c r="B112">
-        <v>-0.000999999999990564</v>
+        <v>0</v>
       </c>
       <c r="C112">
         <v>0</v>
@@ -3979,7 +3979,7 @@
         <v>22</v>
       </c>
       <c r="B124">
-        <v>-0.000999999999990564</v>
+        <v>0</v>
       </c>
       <c r="C124">
         <v>0</v>
@@ -4037,7 +4037,7 @@
         <v>24</v>
       </c>
       <c r="B126">
-        <v>-0.00100000000000477</v>
+        <v>0</v>
       </c>
       <c r="C126">
         <v>0</v>
@@ -4124,7 +4124,7 @@
         <v>27</v>
       </c>
       <c r="B129">
-        <v>-0.00100000000001899</v>
+        <v>-1.4210854715202e-14</v>
       </c>
       <c r="C129">
         <v>1.4210854715202e-14</v>
@@ -4182,7 +4182,7 @@
         <v>29</v>
       </c>
       <c r="B131">
-        <v>-0.000999999999990564</v>
+        <v>0</v>
       </c>
       <c r="C131">
         <v>0</v>
@@ -4211,7 +4211,7 @@
         <v>30</v>
       </c>
       <c r="B132">
-        <v>-0.000999999999990564</v>
+        <v>0</v>
       </c>
       <c r="C132">
         <v>1.4210854715202e-14</v>
@@ -4675,7 +4675,7 @@
         <v>46</v>
       </c>
       <c r="B148">
-        <v>-0.00100000000000477</v>
+        <v>0</v>
       </c>
       <c r="C148">
         <v>0</v>
@@ -5139,7 +5139,7 @@
         <v>62</v>
       </c>
       <c r="B164">
-        <v>-0.00100000000000477</v>
+        <v>-7.105427357601e-15</v>
       </c>
       <c r="C164">
         <v>0</v>
@@ -6009,7 +6009,7 @@
         <v>92</v>
       </c>
       <c r="B194">
-        <v>-0.00100000000000122</v>
+        <v>0</v>
       </c>
       <c r="C194">
         <v>0</v>
@@ -12589,7 +12589,7 @@
         <v>-86</v>
       </c>
       <c r="B16">
-        <v>30.453</v>
+        <v>30.454</v>
       </c>
       <c r="C16">
         <v>30.485</v>
@@ -12618,7 +12618,7 @@
         <v>-85</v>
       </c>
       <c r="B17">
-        <v>31.202</v>
+        <v>31.203</v>
       </c>
       <c r="C17">
         <v>31.233</v>
@@ -13459,7 +13459,7 @@
         <v>-56</v>
       </c>
       <c r="B46">
-        <v>73.024</v>
+        <v>73.025</v>
       </c>
       <c r="C46">
         <v>73.04</v>
@@ -13691,7 +13691,7 @@
         <v>-48</v>
       </c>
       <c r="B54">
-        <v>97.487</v>
+        <v>97.488</v>
       </c>
       <c r="C54">
         <v>97.5</v>
@@ -13778,7 +13778,7 @@
         <v>-45</v>
       </c>
       <c r="B57">
-        <v>109.021</v>
+        <v>109.022</v>
       </c>
       <c r="C57">
         <v>109.034</v>
@@ -14242,7 +14242,7 @@
         <v>-29</v>
       </c>
       <c r="B73">
-        <v>179.209</v>
+        <v>179.21</v>
       </c>
       <c r="C73">
         <v>179.232</v>
@@ -14474,7 +14474,7 @@
         <v>-21</v>
       </c>
       <c r="B81">
-        <v>183.288</v>
+        <v>183.289</v>
       </c>
       <c r="C81">
         <v>183.309</v>
@@ -14590,7 +14590,7 @@
         <v>-17</v>
       </c>
       <c r="B85">
-        <v>169.732</v>
+        <v>169.733</v>
       </c>
       <c r="C85">
         <v>170.005</v>
@@ -14706,7 +14706,7 @@
         <v>-13</v>
       </c>
       <c r="B89">
-        <v>150.646</v>
+        <v>150.647</v>
       </c>
       <c r="C89">
         <v>151.693</v>
@@ -14735,7 +14735,7 @@
         <v>-12</v>
       </c>
       <c r="B90">
-        <v>145.842</v>
+        <v>145.843</v>
       </c>
       <c r="C90">
         <v>147.167</v>
@@ -15373,7 +15373,7 @@
         <v>10</v>
       </c>
       <c r="B112">
-        <v>98.873</v>
+        <v>98.874</v>
       </c>
       <c r="C112">
         <v>98.875</v>
@@ -15721,7 +15721,7 @@
         <v>22</v>
       </c>
       <c r="B124">
-        <v>124.212</v>
+        <v>124.213</v>
       </c>
       <c r="C124">
         <v>127.08</v>
@@ -15779,7 +15779,7 @@
         <v>24</v>
       </c>
       <c r="B126">
-        <v>125.999</v>
+        <v>126</v>
       </c>
       <c r="C126">
         <v>128.98</v>
@@ -15866,7 +15866,7 @@
         <v>27</v>
       </c>
       <c r="B129">
-        <v>124.871</v>
+        <v>124.872</v>
       </c>
       <c r="C129">
         <v>127.974</v>
@@ -15924,7 +15924,7 @@
         <v>29</v>
       </c>
       <c r="B131">
-        <v>121.915</v>
+        <v>121.916</v>
       </c>
       <c r="C131">
         <v>125.09</v>
@@ -15953,7 +15953,7 @@
         <v>30</v>
       </c>
       <c r="B132">
-        <v>119.915</v>
+        <v>119.916</v>
       </c>
       <c r="C132">
         <v>123.123</v>
@@ -16417,7 +16417,7 @@
         <v>46</v>
       </c>
       <c r="B148">
-        <v>75.307</v>
+        <v>75.308</v>
       </c>
       <c r="C148">
         <v>78.305</v>
@@ -16881,7 +16881,7 @@
         <v>62</v>
       </c>
       <c r="B164">
-        <v>45.68</v>
+        <v>45.681</v>
       </c>
       <c r="C164">
         <v>47.622</v>
@@ -17751,7 +17751,7 @@
         <v>92</v>
       </c>
       <c r="B194">
-        <v>22.012</v>
+        <v>22.013</v>
       </c>
       <c r="C194">
         <v>22.79</v>
@@ -18460,7 +18460,7 @@
         <v>-86</v>
       </c>
       <c r="B16">
-        <v>-0.00328374872755138</v>
+        <v>0</v>
       </c>
       <c r="C16">
         <v>0</v>
@@ -18489,7 +18489,7 @@
         <v>-85</v>
       </c>
       <c r="B17">
-        <v>-0.00320492276136537</v>
+        <v>-1.13858080274349e-14</v>
       </c>
       <c r="C17">
         <v>0</v>
@@ -19330,7 +19330,7 @@
         <v>-56</v>
       </c>
       <c r="B46">
-        <v>-0.0013694127957997</v>
+        <v>0</v>
       </c>
       <c r="C46">
         <v>0</v>
@@ -19562,7 +19562,7 @@
         <v>-48</v>
       </c>
       <c r="B54">
-        <v>-0.00102577779601873</v>
+        <v>0</v>
       </c>
       <c r="C54">
         <v>0</v>
@@ -19649,7 +19649,7 @@
         <v>-45</v>
       </c>
       <c r="B57">
-        <v>-0.000917254473913076</v>
+        <v>0</v>
       </c>
       <c r="C57">
         <v>1.30334159209072e-14</v>
@@ -20113,7 +20113,7 @@
         <v>-29</v>
       </c>
       <c r="B73">
-        <v>-0.000558007689348624</v>
+        <v>0</v>
       </c>
       <c r="C73">
         <v>0.000557936082845014</v>
@@ -20345,7 +20345,7 @@
         <v>-21</v>
       </c>
       <c r="B81">
-        <v>-0.000545589454849622</v>
+        <v>-1.55065003521237e-14</v>
       </c>
       <c r="C81">
         <v>-1.55048085093498e-14</v>
@@ -20461,7 +20461,7 @@
         <v>-17</v>
       </c>
       <c r="B85">
-        <v>-0.000589164093986269</v>
+        <v>0</v>
       </c>
       <c r="C85">
         <v>-0.000588217993574514</v>
@@ -20577,7 +20577,7 @@
         <v>-13</v>
       </c>
       <c r="B89">
-        <v>-0.000663807867472881</v>
+        <v>-1.88664290894635e-14</v>
       </c>
       <c r="C89">
         <v>1.8736335513441e-14</v>
@@ -20606,7 +20606,7 @@
         <v>-12</v>
       </c>
       <c r="B90">
-        <v>-0.000685673537099294</v>
+        <v>0</v>
       </c>
       <c r="C90">
         <v>0</v>
@@ -21244,7 +21244,7 @@
         <v>10</v>
       </c>
       <c r="B112">
-        <v>-0.001011398460642</v>
+        <v>0</v>
       </c>
       <c r="C112">
         <v>0</v>
@@ -21592,7 +21592,7 @@
         <v>22</v>
       </c>
       <c r="B124">
-        <v>-0.000805075194015525</v>
+        <v>0</v>
       </c>
       <c r="C124">
         <v>0</v>
@@ -21650,7 +21650,7 @@
         <v>24</v>
       </c>
       <c r="B126">
-        <v>-0.000793657092520397</v>
+        <v>0</v>
       </c>
       <c r="C126">
         <v>0</v>
@@ -21737,7 +21737,7 @@
         <v>27</v>
       </c>
       <c r="B129">
-        <v>-0.000800826452914596</v>
+        <v>-1.13803372374928e-14</v>
       </c>
       <c r="C129">
         <v>1.11044858449388e-14</v>
@@ -21795,7 +21795,7 @@
         <v>29</v>
       </c>
       <c r="B131">
-        <v>-0.000820243612345129</v>
+        <v>0</v>
       </c>
       <c r="C131">
         <v>0</v>
@@ -21824,7 +21824,7 @@
         <v>30</v>
       </c>
       <c r="B132">
-        <v>-0.000833924029513042</v>
+        <v>0</v>
       </c>
       <c r="C132">
         <v>1.1541998420443e-14</v>
@@ -22288,7 +22288,7 @@
         <v>46</v>
       </c>
       <c r="B148">
-        <v>-0.00132789780499127</v>
+        <v>0</v>
       </c>
       <c r="C148">
         <v>0</v>
@@ -22752,7 +22752,7 @@
         <v>62</v>
       </c>
       <c r="B164">
-        <v>-0.00218914185640275</v>
+        <v>-1.55544479271491e-14</v>
       </c>
       <c r="C164">
         <v>0</v>
@@ -23622,7 +23622,7 @@
         <v>92</v>
       </c>
       <c r="B194">
-        <v>-0.00454297655824651</v>
+        <v>0</v>
       </c>
       <c r="C194">
         <v>0</v>

--- a/XC-comparisons/HL_P-DAT_comparison.xlsx
+++ b/XC-comparisons/HL_P-DAT_comparison.xlsx
@@ -2355,7 +2355,7 @@
         <v>-34</v>
       </c>
       <c r="B68">
-        <v>-0.00100000000000477</v>
+        <v>-2.8421709430404e-14</v>
       </c>
       <c r="C68">
         <v>0</v>
@@ -2645,7 +2645,7 @@
         <v>-24</v>
       </c>
       <c r="B78">
-        <v>-0.00100000000000477</v>
+        <v>0</v>
       </c>
       <c r="C78">
         <v>-2.8421709430404e-14</v>
@@ -14097,7 +14097,7 @@
         <v>-34</v>
       </c>
       <c r="B68">
-        <v>159.58</v>
+        <v>159.581</v>
       </c>
       <c r="C68">
         <v>159.602</v>
@@ -14387,7 +14387,7 @@
         <v>-24</v>
       </c>
       <c r="B78">
-        <v>186.837</v>
+        <v>186.838</v>
       </c>
       <c r="C78">
         <v>186.839</v>
@@ -19968,7 +19968,7 @@
         <v>-34</v>
       </c>
       <c r="B68">
-        <v>-0.000626644942978302</v>
+        <v>-1.78102088785031e-14</v>
       </c>
       <c r="C68">
         <v>0</v>
@@ -20258,7 +20258,7 @@
         <v>-24</v>
       </c>
       <c r="B78">
-        <v>-0.000535225892090311</v>
+        <v>0</v>
       </c>
       <c r="C78">
         <v>-1.52118719487923e-14</v>
